--- a/data/gold/gold_sla_issues.xlsx
+++ b/data/gold/gold_sla_issues.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>10.65722222222222</v>
       </c>
       <c r="N2" t="n">
         <v>24</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>48</v>
+        <v>31.99999999972222</v>
       </c>
       <c r="N4" t="n">
         <v>72</v>
@@ -775,14 +775,14 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N5" t="n">
         <v>24</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>72</v>
+        <v>50.6347222213889</v>
       </c>
       <c r="N6" t="n">
         <v>72</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
         <v>24</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>96</v>
+        <v>84.96083333222224</v>
       </c>
       <c r="N8" t="n">
         <v>72</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N9" t="n">
         <v>120</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>72</v>
+        <v>37.99999999944445</v>
       </c>
       <c r="N10" t="n">
         <v>120</v>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>14.15499999972222</v>
       </c>
       <c r="N11" t="n">
         <v>72</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>48</v>
+        <v>13.99999999972222</v>
       </c>
       <c r="N12" t="n">
         <v>72</v>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>24</v>
+        <v>15.56499999972222</v>
       </c>
       <c r="N13" t="n">
         <v>120</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
         <v>24</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>72</v>
+        <v>56.58249999944445</v>
       </c>
       <c r="N15" t="n">
         <v>72</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>48</v>
+        <v>25.97833333277778</v>
       </c>
       <c r="N16" t="n">
         <v>120</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>110.2388888877778</v>
       </c>
       <c r="N17" t="n">
         <v>120</v>
@@ -1698,14 +1698,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N18" t="n">
         <v>24</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>72</v>
+        <v>29.99999999944445</v>
       </c>
       <c r="N19" t="n">
         <v>24</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>24</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>96</v>
+        <v>83.99999999916668</v>
       </c>
       <c r="N21" t="n">
         <v>72</v>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N22" t="n">
         <v>120</v>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>72</v>
+        <v>42.99999999944445</v>
       </c>
       <c r="N23" t="n">
         <v>120</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>18.27249999972222</v>
       </c>
       <c r="N24" t="n">
         <v>72</v>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>72</v>
+        <v>53.99999999944445</v>
       </c>
       <c r="N25" t="n">
         <v>120</v>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>96</v>
+        <v>79.47138888805557</v>
       </c>
       <c r="N28" t="n">
         <v>72</v>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
         <v>24</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>96</v>
+        <v>80.99999999916668</v>
       </c>
       <c r="N30" t="n">
         <v>120</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
         <v>24</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>72</v>
+        <v>42.99999999944445</v>
       </c>
       <c r="N32" t="n">
         <v>72</v>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>96</v>
+        <v>69.99999999916668</v>
       </c>
       <c r="N33" t="n">
         <v>120</v>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>24</v>
+        <v>10.72388888861111</v>
       </c>
       <c r="N34" t="n">
         <v>24</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>72</v>
+        <v>62.99999999944445</v>
       </c>
       <c r="N36" t="n">
         <v>72</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>48</v>
+        <v>30.99999999972222</v>
       </c>
       <c r="N37" t="n">
         <v>72</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>48</v>
+        <v>26.99999999972222</v>
       </c>
       <c r="N38" t="n">
         <v>24</v>
@@ -3189,14 +3189,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N39" t="n">
         <v>24</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -3260,14 +3260,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N40" t="n">
         <v>24</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>24</v>
+        <v>3.161944444166667</v>
       </c>
       <c r="N41" t="n">
         <v>24</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>72</v>
+        <v>54.43888888805557</v>
       </c>
       <c r="N42" t="n">
         <v>120</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>96</v>
+        <v>84.41333333250002</v>
       </c>
       <c r="N43" t="n">
         <v>120</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>72</v>
+        <v>41.99999999944445</v>
       </c>
       <c r="N44" t="n">
         <v>120</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>72</v>
+        <v>41.99999999944445</v>
       </c>
       <c r="N45" t="n">
         <v>120</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>48</v>
+        <v>40.99999999972222</v>
       </c>
       <c r="N46" t="n">
         <v>120</v>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>24</v>
+        <v>9.578888888611111</v>
       </c>
       <c r="N47" t="n">
         <v>72</v>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>100.9999999988889</v>
       </c>
       <c r="N48" t="n">
         <v>120</v>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>24</v>
+        <v>2.693055555555556</v>
       </c>
       <c r="N49" t="n">
         <v>24</v>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N50" t="n">
         <v>24</v>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N51" t="n">
         <v>120</v>
@@ -4112,14 +4112,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N52" t="n">
         <v>24</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>24</v>
+        <v>20.57138888888889</v>
       </c>
       <c r="N53" t="n">
         <v>72</v>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>24</v>
+        <v>19.08277777777778</v>
       </c>
       <c r="N54" t="n">
         <v>72</v>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>48</v>
+        <v>45.61888888861111</v>
       </c>
       <c r="N55" t="n">
         <v>120</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>24</v>
+        <v>4.465</v>
       </c>
       <c r="N56" t="n">
         <v>24</v>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>48</v>
+        <v>29.31277777722223</v>
       </c>
       <c r="N57" t="n">
         <v>72</v>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N58" t="n">
         <v>24</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>48</v>
+        <v>30.99999999972222</v>
       </c>
       <c r="N59" t="n">
         <v>120</v>
@@ -4751,14 +4751,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>96</v>
+        <v>66.99999999916668</v>
       </c>
       <c r="N61" t="n">
         <v>72</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -4822,14 +4822,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>48</v>
+        <v>11.99999999972222</v>
       </c>
       <c r="N62" t="n">
         <v>24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>24</v>
+        <v>10.37472222222222</v>
       </c>
       <c r="N63" t="n">
         <v>24</v>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>24</v>
+        <v>17.58722222194444</v>
       </c>
       <c r="N64" t="n">
         <v>24</v>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>81.9999999988889</v>
       </c>
       <c r="N65" t="n">
         <v>72</v>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>48</v>
+        <v>33.99999999972222</v>
       </c>
       <c r="N66" t="n">
         <v>72</v>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>48</v>
+        <v>33.56722222194445</v>
       </c>
       <c r="N67" t="n">
         <v>72</v>
@@ -5248,14 +5248,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>96</v>
+        <v>70.99999999916668</v>
       </c>
       <c r="N68" t="n">
         <v>72</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>48</v>
+        <v>31.82972222194445</v>
       </c>
       <c r="N69" t="n">
         <v>120</v>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>48</v>
+        <v>39.638055555</v>
       </c>
       <c r="N70" t="n">
         <v>120</v>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N71" t="n">
         <v>72</v>
@@ -5532,14 +5532,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N72" t="n">
         <v>24</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>88.9999999988889</v>
       </c>
       <c r="N74" t="n">
         <v>120</v>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>48</v>
+        <v>24.43194444416667</v>
       </c>
       <c r="N75" t="n">
         <v>120</v>
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>96</v>
+        <v>77.99999999916668</v>
       </c>
       <c r="N76" t="n">
         <v>72</v>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>24</v>
+        <v>6.394166666666667</v>
       </c>
       <c r="N77" t="n">
         <v>24</v>
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>24</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N78" t="n">
         <v>72</v>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N79" t="n">
         <v>72</v>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>24</v>
+        <v>1.406666666388889</v>
       </c>
       <c r="N80" t="n">
         <v>72</v>
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>48</v>
+        <v>43.89805555500001</v>
       </c>
       <c r="N81" t="n">
         <v>72</v>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>72</v>
+        <v>27.99999999944445</v>
       </c>
       <c r="N82" t="n">
         <v>24</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>107.1391666655556</v>
       </c>
       <c r="N83" t="n">
         <v>120</v>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>48</v>
+        <v>47.17638888833334</v>
       </c>
       <c r="N84" t="n">
         <v>72</v>
@@ -6455,14 +6455,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N85" t="n">
         <v>24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N86" t="n">
         <v>72</v>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>72</v>
+        <v>57.1572222213889</v>
       </c>
       <c r="N88" t="n">
         <v>72</v>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N90" t="n">
         <v>24</v>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>96</v>
+        <v>72.81611111027779</v>
       </c>
       <c r="N91" t="n">
         <v>72</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N92" t="n">
         <v>72</v>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>24</v>
+        <v>11.90861111111111</v>
       </c>
       <c r="N93" t="n">
         <v>120</v>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N94" t="n">
         <v>72</v>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>24</v>
+        <v>21.83749999972222</v>
       </c>
       <c r="N95" t="n">
         <v>72</v>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>120</v>
+        <v>98.9999999988889</v>
       </c>
       <c r="N96" t="n">
         <v>120</v>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>96</v>
+        <v>85.99999999916668</v>
       </c>
       <c r="N97" t="n">
         <v>120</v>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>72</v>
+        <v>58.79361111055556</v>
       </c>
       <c r="N98" t="n">
         <v>72</v>
@@ -7449,14 +7449,14 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>96</v>
+        <v>52.99999999916668</v>
       </c>
       <c r="N99" t="n">
         <v>72</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>24</v>
+        <v>6.037777777777777</v>
       </c>
       <c r="N100" t="n">
         <v>24</v>
@@ -7591,14 +7591,14 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>144</v>
+        <v>107.9999999986111</v>
       </c>
       <c r="N101" t="n">
         <v>120</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -7662,14 +7662,14 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>48</v>
+        <v>20.99999999972222</v>
       </c>
       <c r="N102" t="n">
         <v>24</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>48</v>
+        <v>26.5727777775</v>
       </c>
       <c r="N103" t="n">
         <v>72</v>
@@ -7804,14 +7804,14 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>96</v>
+        <v>50.99999999916668</v>
       </c>
       <c r="N104" t="n">
         <v>72</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>48</v>
+        <v>47.89777777722222</v>
       </c>
       <c r="N105" t="n">
         <v>72</v>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>72</v>
+        <v>50.99999999944445</v>
       </c>
       <c r="N106" t="n">
         <v>72</v>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N107" t="n">
         <v>24</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>24</v>
+        <v>4.521944444166667</v>
       </c>
       <c r="N108" t="n">
         <v>120</v>
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>24</v>
+        <v>8.641944444444444</v>
       </c>
       <c r="N110" t="n">
         <v>120</v>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>72</v>
+        <v>54.99999999944445</v>
       </c>
       <c r="N111" t="n">
         <v>72</v>
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N112" t="n">
         <v>72</v>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>48</v>
+        <v>42.88694444416667</v>
       </c>
       <c r="N113" t="n">
         <v>120</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>72</v>
+        <v>64.88694444361113</v>
       </c>
       <c r="N114" t="n">
         <v>72</v>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>48</v>
+        <v>28.96749999972223</v>
       </c>
       <c r="N115" t="n">
         <v>72</v>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N116" t="n">
         <v>24</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N117" t="n">
         <v>24</v>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>24</v>
+        <v>18.53333333305556</v>
       </c>
       <c r="N118" t="n">
         <v>120</v>
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>24</v>
+        <v>8.242777777500001</v>
       </c>
       <c r="N119" t="n">
         <v>120</v>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>83.9999999988889</v>
       </c>
       <c r="N120" t="n">
         <v>120</v>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>72</v>
+        <v>54.99999999944445</v>
       </c>
       <c r="N122" t="n">
         <v>120</v>
@@ -9153,7 +9153,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>48</v>
+        <v>36.96333333277778</v>
       </c>
       <c r="N123" t="n">
         <v>72</v>
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N124" t="n">
         <v>72</v>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>48</v>
+        <v>43.99999999972222</v>
       </c>
       <c r="N125" t="n">
         <v>120</v>
@@ -9366,7 +9366,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N126" t="n">
         <v>24</v>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>24</v>
+        <v>13.88305555555556</v>
       </c>
       <c r="N128" t="n">
         <v>72</v>
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>72</v>
+        <v>62.99999999944445</v>
       </c>
       <c r="N130" t="n">
         <v>72</v>
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>96</v>
+        <v>76.86305555472224</v>
       </c>
       <c r="N131" t="n">
         <v>120</v>
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>96</v>
+        <v>88.99999999916668</v>
       </c>
       <c r="N132" t="n">
         <v>120</v>
@@ -9863,14 +9863,14 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>96</v>
+        <v>67.99999999916668</v>
       </c>
       <c r="N133" t="n">
         <v>72</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -10005,14 +10005,14 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N135" t="n">
         <v>24</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>96</v>
+        <v>81.99999999916668</v>
       </c>
       <c r="N136" t="n">
         <v>120</v>
@@ -10147,14 +10147,14 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N137" t="n">
         <v>24</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>24</v>
+        <v>23.3002777775</v>
       </c>
       <c r="N138" t="n">
         <v>120</v>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>24</v>
+        <v>15.08388888861111</v>
       </c>
       <c r="N139" t="n">
         <v>72</v>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>24</v>
+        <v>16.44249999972222</v>
       </c>
       <c r="N140" t="n">
         <v>120</v>
@@ -10431,14 +10431,14 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>96</v>
+        <v>69.99999999916668</v>
       </c>
       <c r="N141" t="n">
         <v>72</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>48</v>
+        <v>46.09388888861111</v>
       </c>
       <c r="N142" t="n">
         <v>120</v>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>24</v>
+        <v>21.33638888861111</v>
       </c>
       <c r="N143" t="n">
         <v>72</v>
@@ -10644,7 +10644,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>24</v>
+        <v>1.756666666666667</v>
       </c>
       <c r="N144" t="n">
         <v>24</v>
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>96</v>
+        <v>95.9999999988889</v>
       </c>
       <c r="N145" t="n">
         <v>120</v>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>72</v>
+        <v>86.81416666555556</v>
       </c>
       <c r="N146" t="n">
         <v>120</v>
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>48</v>
+        <v>47.99972222166667</v>
       </c>
       <c r="N147" t="n">
         <v>72</v>
@@ -10928,7 +10928,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N148" t="n">
         <v>24</v>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N149" t="n">
         <v>24</v>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>72</v>
+        <v>52.99999999944445</v>
       </c>
       <c r="N150" t="n">
         <v>72</v>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>48</v>
+        <v>42.99999999972222</v>
       </c>
       <c r="N151" t="n">
         <v>72</v>
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>96</v>
+        <v>66.99999999916668</v>
       </c>
       <c r="N152" t="n">
         <v>120</v>
@@ -11283,7 +11283,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>120</v>
+        <v>118.6074999986111</v>
       </c>
       <c r="N153" t="n">
         <v>120</v>
@@ -11354,14 +11354,14 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N154" t="n">
         <v>24</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>24</v>
+        <v>14.18999999972222</v>
       </c>
       <c r="N156" t="n">
         <v>24</v>
@@ -11567,7 +11567,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>48</v>
+        <v>46.03666666638889</v>
       </c>
       <c r="N157" t="n">
         <v>72</v>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N158" t="n">
         <v>120</v>
@@ -11780,14 +11780,14 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>48</v>
+        <v>10.99999999972222</v>
       </c>
       <c r="N160" t="n">
         <v>24</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>24</v>
+        <v>18.2502777775</v>
       </c>
       <c r="N161" t="n">
         <v>72</v>
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>72</v>
+        <v>48.99999999944445</v>
       </c>
       <c r="N162" t="n">
         <v>72</v>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>48</v>
+        <v>31.72222222166667</v>
       </c>
       <c r="N163" t="n">
         <v>120</v>
@@ -12064,7 +12064,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>24</v>
+        <v>4.109722222222222</v>
       </c>
       <c r="N164" t="n">
         <v>72</v>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N165" t="n">
         <v>24</v>
@@ -12206,7 +12206,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N166" t="n">
         <v>72</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>24</v>
+        <v>5.519999999722222</v>
       </c>
       <c r="N167" t="n">
         <v>24</v>
@@ -12419,7 +12419,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>72</v>
+        <v>52.08888888833334</v>
       </c>
       <c r="N169" t="n">
         <v>72</v>
@@ -12490,7 +12490,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N170" t="n">
         <v>72</v>
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>72</v>
+        <v>45.99999999944445</v>
       </c>
       <c r="N171" t="n">
         <v>120</v>
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N172" t="n">
         <v>24</v>
@@ -12703,14 +12703,14 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N173" t="n">
         <v>24</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>24</v>
+        <v>19.14166666638889</v>
       </c>
       <c r="N174" t="n">
         <v>72</v>
@@ -12845,7 +12845,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>24</v>
+        <v>11.13805555527778</v>
       </c>
       <c r="N175" t="n">
         <v>120</v>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>24</v>
+        <v>4.633611110833333</v>
       </c>
       <c r="N176" t="n">
         <v>24</v>
@@ -12987,7 +12987,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>48</v>
+        <v>26.99999999972222</v>
       </c>
       <c r="N177" t="n">
         <v>24</v>
@@ -13058,14 +13058,14 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N178" t="n">
         <v>24</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>24</v>
+        <v>21.68388888861111</v>
       </c>
       <c r="N180" t="n">
         <v>72</v>
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N181" t="n">
         <v>120</v>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N182" t="n">
         <v>72</v>
@@ -13413,7 +13413,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>72</v>
+        <v>95.67972222111112</v>
       </c>
       <c r="N183" t="n">
         <v>120</v>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>24</v>
+        <v>18.1677777775</v>
       </c>
       <c r="N184" t="n">
         <v>72</v>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>24</v>
+        <v>18.86138888888889</v>
       </c>
       <c r="N185" t="n">
         <v>24</v>
@@ -13697,7 +13697,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>24</v>
+        <v>13.35916666638889</v>
       </c>
       <c r="N187" t="n">
         <v>24</v>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>24</v>
+        <v>2.046388888888889</v>
       </c>
       <c r="N188" t="n">
         <v>24</v>
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N189" t="n">
         <v>72</v>
@@ -13910,7 +13910,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>24</v>
+        <v>21.14472222194444</v>
       </c>
       <c r="N190" t="n">
         <v>72</v>
@@ -13981,7 +13981,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>72</v>
+        <v>55.99999999944445</v>
       </c>
       <c r="N191" t="n">
         <v>72</v>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N192" t="n">
         <v>24</v>
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>96</v>
+        <v>86.59333333222223</v>
       </c>
       <c r="N193" t="n">
         <v>120</v>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>48</v>
+        <v>24.108055555</v>
       </c>
       <c r="N194" t="n">
         <v>72</v>
@@ -14336,7 +14336,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>120</v>
+        <v>110.9999999988889</v>
       </c>
       <c r="N196" t="n">
         <v>120</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>24</v>
+        <v>17.32138888888889</v>
       </c>
       <c r="N197" t="n">
         <v>72</v>
@@ -14478,7 +14478,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>24</v>
+        <v>0.2861111108333333</v>
       </c>
       <c r="N198" t="n">
         <v>72</v>
@@ -14549,7 +14549,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>96</v>
+        <v>81.99999999916668</v>
       </c>
       <c r="N199" t="n">
         <v>120</v>
@@ -14620,14 +14620,14 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>144</v>
+        <v>109.9999999986111</v>
       </c>
       <c r="N200" t="n">
         <v>120</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N201" t="n">
         <v>24</v>
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>24</v>
+        <v>12.77138888861111</v>
       </c>
       <c r="N202" t="n">
         <v>24</v>
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N203" t="n">
         <v>24</v>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>96</v>
+        <v>79.56583333250001</v>
       </c>
       <c r="N204" t="n">
         <v>120</v>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>96</v>
+        <v>92.99999999916668</v>
       </c>
       <c r="N205" t="n">
         <v>72</v>
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N206" t="n">
         <v>24</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>120</v>
+        <v>109.1399999986111</v>
       </c>
       <c r="N207" t="n">
         <v>120</v>
@@ -15188,7 +15188,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>48</v>
+        <v>61.99999999944445</v>
       </c>
       <c r="N208" t="n">
         <v>72</v>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>24</v>
+        <v>11.22083333333333</v>
       </c>
       <c r="N209" t="n">
         <v>72</v>
@@ -15401,7 +15401,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>72</v>
+        <v>35.99999999944445</v>
       </c>
       <c r="N211" t="n">
         <v>120</v>
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>120</v>
+        <v>103.7997222208333</v>
       </c>
       <c r="N212" t="n">
         <v>120</v>
@@ -15543,7 +15543,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>24</v>
+        <v>19.4927777775</v>
       </c>
       <c r="N213" t="n">
         <v>72</v>
@@ -15614,7 +15614,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>120</v>
+        <v>104.9999999988889</v>
       </c>
       <c r="N214" t="n">
         <v>120</v>
@@ -15685,7 +15685,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>120</v>
+        <v>111.71861111</v>
       </c>
       <c r="N215" t="n">
         <v>120</v>
@@ -15756,14 +15756,14 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N216" t="n">
         <v>24</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>120</v>
+        <v>100.24361111</v>
       </c>
       <c r="N217" t="n">
         <v>120</v>
@@ -15898,7 +15898,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>72</v>
+        <v>59.620555555</v>
       </c>
       <c r="N218" t="n">
         <v>72</v>
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>48</v>
+        <v>25.88111111083333</v>
       </c>
       <c r="N219" t="n">
         <v>120</v>
@@ -16040,7 +16040,7 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>72</v>
+        <v>49.16194444388889</v>
       </c>
       <c r="N220" t="n">
         <v>72</v>
@@ -16111,7 +16111,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>24</v>
+        <v>20.16694444416667</v>
       </c>
       <c r="N221" t="n">
         <v>120</v>
@@ -16253,7 +16253,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>96</v>
+        <v>67.99999999916668</v>
       </c>
       <c r="N223" t="n">
         <v>120</v>
@@ -16324,7 +16324,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>24</v>
+        <v>3.596111110833333</v>
       </c>
       <c r="N224" t="n">
         <v>24</v>
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N225" t="n">
         <v>24</v>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>24</v>
+        <v>4.5202777775</v>
       </c>
       <c r="N226" t="n">
         <v>24</v>
@@ -16537,7 +16537,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>120</v>
+        <v>87.9999999988889</v>
       </c>
       <c r="N227" t="n">
         <v>120</v>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N228" t="n">
         <v>72</v>
@@ -16679,14 +16679,14 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>144</v>
+        <v>111.9999999986111</v>
       </c>
       <c r="N229" t="n">
         <v>120</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>48</v>
+        <v>27.72361111083334</v>
       </c>
       <c r="N230" t="n">
         <v>72</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N231" t="n">
         <v>72</v>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N233" t="n">
         <v>72</v>
@@ -17034,14 +17034,14 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N234" t="n">
         <v>24</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -17105,14 +17105,14 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N235" t="n">
         <v>24</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -17176,7 +17176,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>24</v>
+        <v>20.87861111111111</v>
       </c>
       <c r="N236" t="n">
         <v>72</v>
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N237" t="n">
         <v>24</v>
@@ -17318,7 +17318,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>24</v>
+        <v>0.8019444441666667</v>
       </c>
       <c r="N238" t="n">
         <v>24</v>
@@ -17460,14 +17460,14 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>48</v>
+        <v>6.999999999722222</v>
       </c>
       <c r="N240" t="n">
         <v>24</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -17531,7 +17531,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>120</v>
+        <v>102.9999999988889</v>
       </c>
       <c r="N241" t="n">
         <v>120</v>
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>72</v>
+        <v>25.99999999944445</v>
       </c>
       <c r="N242" t="n">
         <v>24</v>
@@ -17673,7 +17673,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>24</v>
+        <v>22.72638888861111</v>
       </c>
       <c r="N243" t="n">
         <v>24</v>
@@ -17815,7 +17815,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>24</v>
+        <v>4.712222222222223</v>
       </c>
       <c r="N245" t="n">
         <v>72</v>
@@ -17886,7 +17886,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>96</v>
+        <v>73.43444444361113</v>
       </c>
       <c r="N246" t="n">
         <v>120</v>
@@ -17957,7 +17957,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N247" t="n">
         <v>72</v>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N248" t="n">
         <v>24</v>
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>48</v>
+        <v>16.99999999972222</v>
       </c>
       <c r="N249" t="n">
         <v>72</v>
@@ -18170,7 +18170,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>72</v>
+        <v>56.81111111055556</v>
       </c>
       <c r="N250" t="n">
         <v>120</v>
@@ -18241,7 +18241,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>24</v>
+        <v>20.86833333305556</v>
       </c>
       <c r="N251" t="n">
         <v>24</v>
@@ -18383,7 +18383,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>72</v>
+        <v>62.10166666583334</v>
       </c>
       <c r="N253" t="n">
         <v>72</v>
@@ -18454,7 +18454,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N254" t="n">
         <v>72</v>
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>96</v>
+        <v>93.4722222213889</v>
       </c>
       <c r="N256" t="n">
         <v>120</v>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>72</v>
+        <v>54.55722222166667</v>
       </c>
       <c r="N257" t="n">
         <v>72</v>
@@ -18738,7 +18738,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>24</v>
+        <v>10.76833333305555</v>
       </c>
       <c r="N258" t="n">
         <v>72</v>
@@ -18809,7 +18809,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>48</v>
+        <v>30.99999999972222</v>
       </c>
       <c r="N259" t="n">
         <v>120</v>
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>72</v>
+        <v>55.99999999944445</v>
       </c>
       <c r="N260" t="n">
         <v>120</v>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>96</v>
+        <v>70.99999999916668</v>
       </c>
       <c r="N262" t="n">
         <v>120</v>
@@ -19093,7 +19093,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>24</v>
+        <v>8.835277777777778</v>
       </c>
       <c r="N263" t="n">
         <v>120</v>
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>72</v>
+        <v>60.77611111027779</v>
       </c>
       <c r="N264" t="n">
         <v>120</v>
@@ -19235,7 +19235,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>72</v>
+        <v>69.53861111055556</v>
       </c>
       <c r="N265" t="n">
         <v>72</v>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N266" t="n">
         <v>24</v>
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>72</v>
+        <v>69.54777777722222</v>
       </c>
       <c r="N267" t="n">
         <v>120</v>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>48</v>
+        <v>24.40249999944445</v>
       </c>
       <c r="N268" t="n">
         <v>120</v>
@@ -19519,7 +19519,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>24</v>
+        <v>21.45444444416667</v>
       </c>
       <c r="N269" t="n">
         <v>120</v>
@@ -19590,14 +19590,14 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N270" t="n">
         <v>24</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -19661,7 +19661,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>72</v>
+        <v>54.99999999944445</v>
       </c>
       <c r="N271" t="n">
         <v>120</v>
@@ -19732,7 +19732,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>96</v>
+        <v>81.77583333250001</v>
       </c>
       <c r="N272" t="n">
         <v>120</v>
@@ -19803,14 +19803,14 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N273" t="n">
         <v>24</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>48</v>
+        <v>39.96138888833334</v>
       </c>
       <c r="N274" t="n">
         <v>120</v>
@@ -19945,14 +19945,14 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>48</v>
+        <v>12.99999999972222</v>
       </c>
       <c r="N275" t="n">
         <v>24</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>72</v>
+        <v>55.99999999944445</v>
       </c>
       <c r="N276" t="n">
         <v>72</v>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>48</v>
+        <v>26.99999999972222</v>
       </c>
       <c r="N278" t="n">
         <v>72</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>72</v>
+        <v>64.74388888833333</v>
       </c>
       <c r="N279" t="n">
         <v>120</v>
@@ -20300,7 +20300,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>48</v>
+        <v>42.26444444416666</v>
       </c>
       <c r="N280" t="n">
         <v>72</v>
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>24</v>
+        <v>8.488888888888889</v>
       </c>
       <c r="N281" t="n">
         <v>72</v>
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N282" t="n">
         <v>72</v>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>24</v>
+        <v>5.403611110833333</v>
       </c>
       <c r="N284" t="n">
         <v>72</v>
@@ -20655,7 +20655,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>72</v>
+        <v>61.23611111027779</v>
       </c>
       <c r="N285" t="n">
         <v>120</v>
@@ -20726,7 +20726,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>48</v>
+        <v>32.38861111055556</v>
       </c>
       <c r="N286" t="n">
         <v>72</v>
@@ -20797,7 +20797,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>48</v>
+        <v>38.50694444416666</v>
       </c>
       <c r="N287" t="n">
         <v>72</v>
@@ -20868,7 +20868,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>72</v>
+        <v>50.99999999944445</v>
       </c>
       <c r="N288" t="n">
         <v>120</v>
@@ -20939,7 +20939,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>72</v>
+        <v>57.99999999944445</v>
       </c>
       <c r="N289" t="n">
         <v>72</v>
@@ -21081,7 +21081,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N291" t="n">
         <v>24</v>
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>48</v>
+        <v>41.20222222166667</v>
       </c>
       <c r="N292" t="n">
         <v>120</v>
@@ -21223,7 +21223,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>72</v>
+        <v>68.008055555</v>
       </c>
       <c r="N293" t="n">
         <v>72</v>
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N295" t="n">
         <v>120</v>
@@ -21436,7 +21436,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>48</v>
+        <v>44.82249999944445</v>
       </c>
       <c r="N296" t="n">
         <v>72</v>
@@ -21507,7 +21507,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>96.9999999988889</v>
       </c>
       <c r="N297" t="n">
         <v>120</v>
@@ -21578,7 +21578,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N298" t="n">
         <v>120</v>
@@ -21649,7 +21649,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>48</v>
+        <v>40.73861111055556</v>
       </c>
       <c r="N299" t="n">
         <v>120</v>
@@ -21720,7 +21720,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>48</v>
+        <v>39.39916666611111</v>
       </c>
       <c r="N300" t="n">
         <v>120</v>
@@ -21791,7 +21791,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>72</v>
+        <v>37.99999999944445</v>
       </c>
       <c r="N301" t="n">
         <v>72</v>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>72</v>
+        <v>58.99999999944445</v>
       </c>
       <c r="N302" t="n">
         <v>120</v>
@@ -21933,14 +21933,14 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>144</v>
+        <v>109.9999999986111</v>
       </c>
       <c r="N303" t="n">
         <v>120</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -22004,14 +22004,14 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>48</v>
+        <v>20.99999999972222</v>
       </c>
       <c r="N304" t="n">
         <v>24</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -22075,7 +22075,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>120</v>
+        <v>98.9999999988889</v>
       </c>
       <c r="N305" t="n">
         <v>120</v>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>72</v>
+        <v>49.99999999944445</v>
       </c>
       <c r="N306" t="n">
         <v>72</v>
@@ -22217,14 +22217,14 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>48</v>
+        <v>13.99999999972222</v>
       </c>
       <c r="N307" t="n">
         <v>24</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -22288,7 +22288,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>72</v>
+        <v>48.99999999944445</v>
       </c>
       <c r="N308" t="n">
         <v>120</v>
@@ -22359,7 +22359,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>120</v>
+        <v>109.3822222208333</v>
       </c>
       <c r="N309" t="n">
         <v>120</v>
@@ -22430,7 +22430,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>24</v>
+        <v>14.99999999972222</v>
       </c>
       <c r="N310" t="n">
         <v>24</v>
@@ -22501,7 +22501,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>48</v>
+        <v>36.99999999972222</v>
       </c>
       <c r="N311" t="n">
         <v>72</v>
@@ -22572,7 +22572,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>24</v>
+        <v>9.046666666388889</v>
       </c>
       <c r="N312" t="n">
         <v>120</v>
@@ -22643,7 +22643,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N313" t="n">
         <v>120</v>
@@ -22714,14 +22714,14 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N314" t="n">
         <v>24</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -22856,7 +22856,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>72</v>
+        <v>48.71055555472223</v>
       </c>
       <c r="N316" t="n">
         <v>120</v>
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N317" t="n">
         <v>24</v>
@@ -22998,7 +22998,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>72</v>
+        <v>32.99999999944445</v>
       </c>
       <c r="N318" t="n">
         <v>120</v>
@@ -23069,7 +23069,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>72</v>
+        <v>47.99999999944445</v>
       </c>
       <c r="N319" t="n">
         <v>120</v>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>72</v>
+        <v>66.33194444361112</v>
       </c>
       <c r="N320" t="n">
         <v>120</v>
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>24</v>
+        <v>5.398333333333333</v>
       </c>
       <c r="N321" t="n">
         <v>24</v>
@@ -23282,7 +23282,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>48</v>
+        <v>29.54833333305556</v>
       </c>
       <c r="N322" t="n">
         <v>72</v>
@@ -23353,7 +23353,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>96</v>
+        <v>86.4622222213889</v>
       </c>
       <c r="N323" t="n">
         <v>120</v>
@@ -23566,7 +23566,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>72</v>
+        <v>68.29611111027779</v>
       </c>
       <c r="N326" t="n">
         <v>120</v>
@@ -23637,7 +23637,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>24</v>
+        <v>19.04888888888889</v>
       </c>
       <c r="N327" t="n">
         <v>120</v>
@@ -23708,7 +23708,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>96</v>
+        <v>78.09749999888889</v>
       </c>
       <c r="N328" t="n">
         <v>120</v>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>96</v>
+        <v>86.87166666583335</v>
       </c>
       <c r="N329" t="n">
         <v>120</v>
@@ -23850,7 +23850,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>48</v>
+        <v>38.99999999944445</v>
       </c>
       <c r="N330" t="n">
         <v>120</v>
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>48</v>
+        <v>42.99999999972222</v>
       </c>
       <c r="N331" t="n">
         <v>120</v>
@@ -23992,14 +23992,14 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>48</v>
+        <v>9.999999999722222</v>
       </c>
       <c r="N332" t="n">
         <v>24</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -24063,7 +24063,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N333" t="n">
         <v>24</v>
@@ -24134,7 +24134,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>24</v>
+        <v>7.924722221944444</v>
       </c>
       <c r="N334" t="n">
         <v>24</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N335" t="n">
         <v>120</v>
@@ -24276,7 +24276,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N336" t="n">
         <v>24</v>
@@ -24347,7 +24347,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N337" t="n">
         <v>24</v>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>120</v>
+        <v>107.1144444433333</v>
       </c>
       <c r="N338" t="n">
         <v>120</v>
@@ -24489,7 +24489,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>96</v>
+        <v>88.89055555444445</v>
       </c>
       <c r="N339" t="n">
         <v>72</v>
@@ -24560,7 +24560,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>24</v>
+        <v>3.143888888888889</v>
       </c>
       <c r="N340" t="n">
         <v>24</v>
@@ -24702,7 +24702,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>72</v>
+        <v>57.77444444361112</v>
       </c>
       <c r="N342" t="n">
         <v>120</v>
@@ -24773,7 +24773,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>96</v>
+        <v>84.99999999916668</v>
       </c>
       <c r="N343" t="n">
         <v>120</v>
@@ -24915,14 +24915,14 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>48</v>
+        <v>7.999999999722222</v>
       </c>
       <c r="N345" t="n">
         <v>24</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -24986,7 +24986,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>24</v>
+        <v>7.204444444166667</v>
       </c>
       <c r="N346" t="n">
         <v>24</v>
@@ -25057,7 +25057,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>96</v>
+        <v>89.43222222111112</v>
       </c>
       <c r="N347" t="n">
         <v>72</v>
@@ -25128,7 +25128,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>96</v>
+        <v>82.99999999916668</v>
       </c>
       <c r="N348" t="n">
         <v>72</v>
@@ -25199,7 +25199,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>24</v>
+        <v>4.404166666388889</v>
       </c>
       <c r="N349" t="n">
         <v>24</v>
@@ -25270,7 +25270,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>48</v>
+        <v>30.99999999972222</v>
       </c>
       <c r="N350" t="n">
         <v>72</v>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>48</v>
+        <v>25.67333333277778</v>
       </c>
       <c r="N351" t="n">
         <v>72</v>
@@ -25412,7 +25412,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>72</v>
+        <v>49.99999999944445</v>
       </c>
       <c r="N352" t="n">
         <v>72</v>
@@ -25483,7 +25483,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>24</v>
+        <v>9.269166666666667</v>
       </c>
       <c r="N353" t="n">
         <v>24</v>
@@ -25554,7 +25554,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>48</v>
+        <v>28.47138888861111</v>
       </c>
       <c r="N354" t="n">
         <v>72</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>24</v>
+        <v>6.7802777775</v>
       </c>
       <c r="N355" t="n">
         <v>72</v>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>96</v>
+        <v>97.9999999988889</v>
       </c>
       <c r="N356" t="n">
         <v>120</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>48</v>
+        <v>36.84083333305556</v>
       </c>
       <c r="N357" t="n">
         <v>72</v>
@@ -25838,14 +25838,14 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>48</v>
+        <v>10.99999999972222</v>
       </c>
       <c r="N358" t="n">
         <v>24</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -25980,7 +25980,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>72</v>
+        <v>50.99999999944445</v>
       </c>
       <c r="N360" t="n">
         <v>72</v>
@@ -26051,7 +26051,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>48</v>
+        <v>47.9452777775</v>
       </c>
       <c r="N361" t="n">
         <v>120</v>
@@ -26122,7 +26122,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N362" t="n">
         <v>24</v>
@@ -26193,7 +26193,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>72</v>
+        <v>62.99999999944445</v>
       </c>
       <c r="N363" t="n">
         <v>120</v>
@@ -26264,14 +26264,14 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N364" t="n">
         <v>24</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -26335,7 +26335,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>120</v>
+        <v>100.9999999988889</v>
       </c>
       <c r="N365" t="n">
         <v>120</v>
@@ -26406,7 +26406,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>72</v>
+        <v>58.99999999944445</v>
       </c>
       <c r="N366" t="n">
         <v>120</v>
@@ -26548,7 +26548,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N368" t="n">
         <v>120</v>
@@ -26619,7 +26619,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>96</v>
+        <v>79.57805555472223</v>
       </c>
       <c r="N369" t="n">
         <v>72</v>
@@ -26761,7 +26761,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N371" t="n">
         <v>120</v>
@@ -26832,7 +26832,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>72</v>
+        <v>50.99999999944445</v>
       </c>
       <c r="N372" t="n">
         <v>120</v>
@@ -26903,7 +26903,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N373" t="n">
         <v>24</v>
@@ -26974,7 +26974,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N374" t="n">
         <v>24</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>96</v>
+        <v>78.99999999916668</v>
       </c>
       <c r="N375" t="n">
         <v>120</v>
@@ -27116,7 +27116,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>72</v>
+        <v>63.83611111027778</v>
       </c>
       <c r="N376" t="n">
         <v>120</v>
@@ -27187,7 +27187,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>96</v>
+        <v>83.99999999916668</v>
       </c>
       <c r="N377" t="n">
         <v>72</v>
@@ -27258,7 +27258,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N378" t="n">
         <v>24</v>
@@ -27329,7 +27329,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>72</v>
+        <v>58.33361111055556</v>
       </c>
       <c r="N379" t="n">
         <v>120</v>
@@ -27400,7 +27400,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N380" t="n">
         <v>24</v>
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>72</v>
+        <v>59.99999999944445</v>
       </c>
       <c r="N381" t="n">
         <v>120</v>
@@ -27542,7 +27542,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>24</v>
+        <v>17.99805555555556</v>
       </c>
       <c r="N382" t="n">
         <v>24</v>
@@ -27684,7 +27684,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>48</v>
+        <v>30.99999999972222</v>
       </c>
       <c r="N384" t="n">
         <v>120</v>
@@ -27755,7 +27755,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>72</v>
+        <v>57.46638888833333</v>
       </c>
       <c r="N385" t="n">
         <v>72</v>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>72</v>
+        <v>64.45388888833334</v>
       </c>
       <c r="N386" t="n">
         <v>120</v>
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N387" t="n">
         <v>72</v>
@@ -27968,14 +27968,14 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>96</v>
+        <v>60.99999999916668</v>
       </c>
       <c r="N388" t="n">
         <v>72</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -28039,7 +28039,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>72</v>
+        <v>34.99999999944445</v>
       </c>
       <c r="N389" t="n">
         <v>72</v>
@@ -28110,7 +28110,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N390" t="n">
         <v>72</v>
@@ -28181,7 +28181,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>48</v>
+        <v>28.213055555</v>
       </c>
       <c r="N391" t="n">
         <v>72</v>
@@ -28252,7 +28252,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>72</v>
+        <v>69.57277777694445</v>
       </c>
       <c r="N392" t="n">
         <v>72</v>
@@ -28323,7 +28323,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>48</v>
+        <v>46.338055555</v>
       </c>
       <c r="N393" t="n">
         <v>72</v>
@@ -28394,7 +28394,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>48</v>
+        <v>30.45611111055556</v>
       </c>
       <c r="N394" t="n">
         <v>72</v>
@@ -28465,7 +28465,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>72</v>
+        <v>68.99999999944446</v>
       </c>
       <c r="N395" t="n">
         <v>120</v>
@@ -28536,7 +28536,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>48</v>
+        <v>46.03944444416666</v>
       </c>
       <c r="N396" t="n">
         <v>72</v>
@@ -28607,7 +28607,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>48</v>
+        <v>38.84166666638889</v>
       </c>
       <c r="N397" t="n">
         <v>72</v>
@@ -28678,7 +28678,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N398" t="n">
         <v>24</v>
@@ -28749,7 +28749,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>120</v>
+        <v>87.9999999988889</v>
       </c>
       <c r="N399" t="n">
         <v>120</v>
@@ -28820,7 +28820,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>24</v>
+        <v>5.048055555277777</v>
       </c>
       <c r="N400" t="n">
         <v>24</v>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>72</v>
+        <v>62.99999999944445</v>
       </c>
       <c r="N401" t="n">
         <v>120</v>
@@ -28962,14 +28962,14 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N402" t="n">
         <v>24</v>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -29033,7 +29033,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>24</v>
+        <v>2.309999999722222</v>
       </c>
       <c r="N403" t="n">
         <v>120</v>
@@ -29104,7 +29104,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>24</v>
+        <v>3.178055555555555</v>
       </c>
       <c r="N404" t="n">
         <v>120</v>
@@ -29175,7 +29175,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>96</v>
+        <v>86.2499999988889</v>
       </c>
       <c r="N405" t="n">
         <v>120</v>
@@ -29246,7 +29246,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>120</v>
+        <v>106.3299999988889</v>
       </c>
       <c r="N406" t="n">
         <v>120</v>
@@ -29317,7 +29317,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>24</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="N407" t="n">
         <v>72</v>
@@ -29388,7 +29388,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>24</v>
+        <v>7.788055555555555</v>
       </c>
       <c r="N408" t="n">
         <v>24</v>
@@ -29459,7 +29459,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>24</v>
+        <v>7.096666666388889</v>
       </c>
       <c r="N409" t="n">
         <v>120</v>
@@ -29530,14 +29530,14 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N410" t="n">
         <v>24</v>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -29601,7 +29601,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N411" t="n">
         <v>24</v>
@@ -29672,7 +29672,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>120</v>
+        <v>90.9999999988889</v>
       </c>
       <c r="N412" t="n">
         <v>120</v>
@@ -29743,7 +29743,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>72</v>
+        <v>49.99999999944445</v>
       </c>
       <c r="N413" t="n">
         <v>120</v>
@@ -29814,7 +29814,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N414" t="n">
         <v>72</v>
@@ -29885,7 +29885,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>120</v>
+        <v>87.9999999988889</v>
       </c>
       <c r="N415" t="n">
         <v>72</v>
@@ -29956,7 +29956,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>48</v>
+        <v>38.7852777775</v>
       </c>
       <c r="N416" t="n">
         <v>72</v>
@@ -30027,7 +30027,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N417" t="n">
         <v>24</v>
@@ -30098,7 +30098,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>48</v>
+        <v>42.87194444416667</v>
       </c>
       <c r="N418" t="n">
         <v>72</v>
@@ -30169,7 +30169,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>48</v>
+        <v>34.66944444388889</v>
       </c>
       <c r="N419" t="n">
         <v>120</v>
@@ -30240,7 +30240,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N420" t="n">
         <v>72</v>
@@ -30311,7 +30311,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>96</v>
+        <v>85.09333333222223</v>
       </c>
       <c r="N421" t="n">
         <v>120</v>
@@ -30382,7 +30382,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>48</v>
+        <v>33.98083333277778</v>
       </c>
       <c r="N422" t="n">
         <v>120</v>
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>24</v>
+        <v>19.6425</v>
       </c>
       <c r="N424" t="n">
         <v>24</v>
@@ -30595,14 +30595,14 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>144</v>
+        <v>105.9999999986111</v>
       </c>
       <c r="N425" t="n">
         <v>120</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -30666,7 +30666,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>24</v>
+        <v>19.79888888888889</v>
       </c>
       <c r="N426" t="n">
         <v>24</v>
@@ -30737,7 +30737,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N427" t="n">
         <v>72</v>
@@ -30808,7 +30808,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>24</v>
+        <v>23.94555555555555</v>
       </c>
       <c r="N428" t="n">
         <v>24</v>
@@ -30879,7 +30879,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N429" t="n">
         <v>24</v>
@@ -31021,7 +31021,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>24</v>
+        <v>0.51</v>
       </c>
       <c r="N431" t="n">
         <v>24</v>
@@ -31092,7 +31092,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>48</v>
+        <v>47.78138888861111</v>
       </c>
       <c r="N432" t="n">
         <v>72</v>
@@ -31163,7 +31163,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>48</v>
+        <v>33.12555555527778</v>
       </c>
       <c r="N433" t="n">
         <v>120</v>
@@ -31234,7 +31234,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N434" t="n">
         <v>72</v>
@@ -31305,7 +31305,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>96</v>
+        <v>82.7547222213889</v>
       </c>
       <c r="N435" t="n">
         <v>120</v>
@@ -31376,7 +31376,7 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>72</v>
+        <v>54.2847222213889</v>
       </c>
       <c r="N436" t="n">
         <v>120</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>96</v>
+        <v>78.99999999916668</v>
       </c>
       <c r="N437" t="n">
         <v>120</v>
@@ -31518,14 +31518,14 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>96</v>
+        <v>69.99999999916668</v>
       </c>
       <c r="N438" t="n">
         <v>72</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -31589,7 +31589,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>120</v>
+        <v>111.9999999988889</v>
       </c>
       <c r="N439" t="n">
         <v>120</v>
@@ -31660,7 +31660,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>72</v>
+        <v>45.99999999944445</v>
       </c>
       <c r="N440" t="n">
         <v>72</v>
@@ -31731,7 +31731,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>48</v>
+        <v>46.45305555527778</v>
       </c>
       <c r="N441" t="n">
         <v>72</v>
@@ -31802,7 +31802,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>72</v>
+        <v>48.99999999944445</v>
       </c>
       <c r="N442" t="n">
         <v>120</v>
@@ -31944,7 +31944,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>96</v>
+        <v>82.03805555472223</v>
       </c>
       <c r="N444" t="n">
         <v>72</v>
@@ -32015,7 +32015,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>24</v>
+        <v>10.38888888861111</v>
       </c>
       <c r="N445" t="n">
         <v>72</v>
@@ -32086,14 +32086,14 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>96</v>
+        <v>65.99999999916668</v>
       </c>
       <c r="N446" t="n">
         <v>72</v>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>24</v>
+        <v>7.352222221944444</v>
       </c>
       <c r="N447" t="n">
         <v>120</v>
@@ -32228,7 +32228,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N448" t="n">
         <v>72</v>
@@ -32299,7 +32299,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N449" t="n">
         <v>24</v>
@@ -32370,7 +32370,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>120</v>
+        <v>87.9999999988889</v>
       </c>
       <c r="N450" t="n">
         <v>120</v>
@@ -32441,14 +32441,14 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>48</v>
+        <v>16.99999999972222</v>
       </c>
       <c r="N451" t="n">
         <v>24</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -32512,7 +32512,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>24</v>
+        <v>7.981944444444444</v>
       </c>
       <c r="N452" t="n">
         <v>72</v>
@@ -32583,7 +32583,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>96</v>
+        <v>84.99999999916668</v>
       </c>
       <c r="N453" t="n">
         <v>120</v>
@@ -32654,7 +32654,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N454" t="n">
         <v>24</v>
@@ -32725,7 +32725,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>24</v>
+        <v>13.30861111111111</v>
       </c>
       <c r="N455" t="n">
         <v>120</v>
@@ -32796,7 +32796,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>96</v>
+        <v>83.37416666555556</v>
       </c>
       <c r="N456" t="n">
         <v>120</v>
@@ -32938,7 +32938,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N458" t="n">
         <v>24</v>
@@ -33009,7 +33009,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N459" t="n">
         <v>24</v>
@@ -33080,7 +33080,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>96</v>
+        <v>59.99999999916668</v>
       </c>
       <c r="N460" t="n">
         <v>120</v>
@@ -33151,7 +33151,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>72</v>
+        <v>57.83027777694446</v>
       </c>
       <c r="N461" t="n">
         <v>120</v>
@@ -33222,7 +33222,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>24</v>
+        <v>0.8755555555555555</v>
       </c>
       <c r="N462" t="n">
         <v>24</v>
@@ -33293,7 +33293,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>24</v>
+        <v>15.52555555527778</v>
       </c>
       <c r="N463" t="n">
         <v>72</v>
@@ -33364,7 +33364,7 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>72</v>
+        <v>50.99999999944445</v>
       </c>
       <c r="N464" t="n">
         <v>72</v>
@@ -33435,14 +33435,14 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>48</v>
+        <v>8.999999999722222</v>
       </c>
       <c r="N465" t="n">
         <v>24</v>
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>96</v>
+        <v>65.99999999916668</v>
       </c>
       <c r="N466" t="n">
         <v>120</v>
@@ -33577,7 +33577,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>96</v>
+        <v>53.99999999916668</v>
       </c>
       <c r="N467" t="n">
         <v>120</v>
@@ -33648,7 +33648,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>72</v>
+        <v>44.99999999944445</v>
       </c>
       <c r="N468" t="n">
         <v>72</v>
@@ -33719,7 +33719,7 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N469" t="n">
         <v>24</v>
@@ -33790,7 +33790,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>24</v>
+        <v>20.29166666638889</v>
       </c>
       <c r="N470" t="n">
         <v>24</v>
@@ -33861,7 +33861,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>120</v>
+        <v>105.9999999988889</v>
       </c>
       <c r="N471" t="n">
         <v>120</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>24</v>
+        <v>13.67083333305555</v>
       </c>
       <c r="N472" t="n">
         <v>24</v>
@@ -34003,14 +34003,14 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>48</v>
+        <v>20.99999999972222</v>
       </c>
       <c r="N473" t="n">
         <v>24</v>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -34074,7 +34074,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>24</v>
+        <v>10.02305555555555</v>
       </c>
       <c r="N474" t="n">
         <v>72</v>
@@ -34145,7 +34145,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>24</v>
+        <v>2.780833333333333</v>
       </c>
       <c r="N475" t="n">
         <v>120</v>
@@ -34216,7 +34216,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>24</v>
+        <v>7.365833333333334</v>
       </c>
       <c r="N476" t="n">
         <v>72</v>
@@ -34287,7 +34287,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>96</v>
+        <v>90.99999999916668</v>
       </c>
       <c r="N477" t="n">
         <v>72</v>
@@ -34358,7 +34358,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>48</v>
+        <v>36.99999999972222</v>
       </c>
       <c r="N478" t="n">
         <v>72</v>
@@ -34429,7 +34429,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>72</v>
+        <v>61.1397222213889</v>
       </c>
       <c r="N479" t="n">
         <v>120</v>
@@ -34500,7 +34500,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N480" t="n">
         <v>72</v>
@@ -34642,7 +34642,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N482" t="n">
         <v>24</v>
@@ -34713,7 +34713,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>24</v>
+        <v>21.05888888861111</v>
       </c>
       <c r="N483" t="n">
         <v>120</v>
@@ -34784,14 +34784,14 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>48</v>
+        <v>13.99999999972222</v>
       </c>
       <c r="N484" t="n">
         <v>24</v>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -34855,7 +34855,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>72</v>
+        <v>44.99999999944445</v>
       </c>
       <c r="N485" t="n">
         <v>120</v>
@@ -34926,14 +34926,14 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>48</v>
+        <v>16.99999999972222</v>
       </c>
       <c r="N486" t="n">
         <v>24</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -34997,7 +34997,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>72</v>
+        <v>65.38027777694445</v>
       </c>
       <c r="N487" t="n">
         <v>72</v>
@@ -35068,7 +35068,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>48</v>
+        <v>31.99999999972222</v>
       </c>
       <c r="N488" t="n">
         <v>72</v>
@@ -35139,7 +35139,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>72</v>
+        <v>95.72222222111112</v>
       </c>
       <c r="N489" t="n">
         <v>120</v>
@@ -35210,7 +35210,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>96</v>
+        <v>84.52555555472223</v>
       </c>
       <c r="N490" t="n">
         <v>120</v>
@@ -35281,7 +35281,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>24</v>
+        <v>22.87055555527778</v>
       </c>
       <c r="N491" t="n">
         <v>120</v>
@@ -35352,7 +35352,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>72</v>
+        <v>47.99999999944445</v>
       </c>
       <c r="N492" t="n">
         <v>120</v>
@@ -35423,7 +35423,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>24</v>
+        <v>20.94833333305556</v>
       </c>
       <c r="N493" t="n">
         <v>24</v>
@@ -35494,7 +35494,7 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>24</v>
+        <v>18.1377777775</v>
       </c>
       <c r="N494" t="n">
         <v>120</v>
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>24</v>
+        <v>23.15166666638889</v>
       </c>
       <c r="N495" t="n">
         <v>120</v>
@@ -35707,7 +35707,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N497" t="n">
         <v>120</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>72</v>
+        <v>46.99999999944445</v>
       </c>
       <c r="N498" t="n">
         <v>72</v>
@@ -35849,7 +35849,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N499" t="n">
         <v>72</v>
@@ -35920,7 +35920,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N500" t="n">
         <v>120</v>
@@ -35991,7 +35991,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>120</v>
+        <v>103.9999999988889</v>
       </c>
       <c r="N501" t="n">
         <v>120</v>
@@ -36062,7 +36062,7 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N502" t="n">
         <v>24</v>
@@ -36133,7 +36133,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>72</v>
+        <v>31.99999999944445</v>
       </c>
       <c r="N503" t="n">
         <v>72</v>
@@ -36204,7 +36204,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>48</v>
+        <v>37.78722222166667</v>
       </c>
       <c r="N504" t="n">
         <v>120</v>
@@ -36275,7 +36275,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>48</v>
+        <v>25.773055555</v>
       </c>
       <c r="N505" t="n">
         <v>72</v>
@@ -36346,7 +36346,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>120</v>
+        <v>86.9999999988889</v>
       </c>
       <c r="N506" t="n">
         <v>72</v>
@@ -36417,7 +36417,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>72</v>
+        <v>56.97861111055556</v>
       </c>
       <c r="N507" t="n">
         <v>120</v>
@@ -36488,14 +36488,14 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N508" t="n">
         <v>24</v>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -36559,7 +36559,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>24</v>
+        <v>12.43194444416667</v>
       </c>
       <c r="N509" t="n">
         <v>72</v>
@@ -36630,7 +36630,7 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N510" t="n">
         <v>24</v>
@@ -36701,7 +36701,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>48</v>
+        <v>28.59694444416667</v>
       </c>
       <c r="N511" t="n">
         <v>120</v>
@@ -36772,14 +36772,14 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N512" t="n">
         <v>24</v>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -36843,7 +36843,7 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>48</v>
+        <v>27.08499999972222</v>
       </c>
       <c r="N513" t="n">
         <v>72</v>
@@ -36914,7 +36914,7 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>96</v>
+        <v>74.40916666555556</v>
       </c>
       <c r="N514" t="n">
         <v>120</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>24</v>
+        <v>21.77861111111111</v>
       </c>
       <c r="N517" t="n">
         <v>24</v>
@@ -37198,7 +37198,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>24</v>
+        <v>17.8825</v>
       </c>
       <c r="N518" t="n">
         <v>72</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>96</v>
+        <v>85.77305555472223</v>
       </c>
       <c r="N519" t="n">
         <v>120</v>
@@ -37340,7 +37340,7 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>48</v>
+        <v>29.23472222166667</v>
       </c>
       <c r="N520" t="n">
         <v>72</v>
@@ -37411,7 +37411,7 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>72</v>
+        <v>41.99999999944445</v>
       </c>
       <c r="N521" t="n">
         <v>120</v>
@@ -37624,7 +37624,7 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N524" t="n">
         <v>24</v>
@@ -37695,7 +37695,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>72</v>
+        <v>58.43694444361112</v>
       </c>
       <c r="N525" t="n">
         <v>72</v>
@@ -37766,7 +37766,7 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N526" t="n">
         <v>120</v>
@@ -37908,7 +37908,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>48</v>
+        <v>24.79944444416667</v>
       </c>
       <c r="N528" t="n">
         <v>24</v>
@@ -38050,7 +38050,7 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>24</v>
+        <v>3.959999999722222</v>
       </c>
       <c r="N530" t="n">
         <v>72</v>
@@ -38121,7 +38121,7 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N531" t="n">
         <v>24</v>
@@ -38263,7 +38263,7 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>72</v>
+        <v>58.7297222213889</v>
       </c>
       <c r="N533" t="n">
         <v>72</v>
@@ -38405,7 +38405,7 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N535" t="n">
         <v>24</v>
@@ -38476,7 +38476,7 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>24</v>
+        <v>11.37666666638889</v>
       </c>
       <c r="N536" t="n">
         <v>120</v>
@@ -38547,7 +38547,7 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>24</v>
+        <v>7.325555555277778</v>
       </c>
       <c r="N537" t="n">
         <v>24</v>
@@ -38618,7 +38618,7 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N538" t="n">
         <v>24</v>
@@ -38760,7 +38760,7 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>72</v>
+        <v>66.75638888833333</v>
       </c>
       <c r="N540" t="n">
         <v>72</v>
@@ -38831,7 +38831,7 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>48</v>
+        <v>25.79583333305556</v>
       </c>
       <c r="N541" t="n">
         <v>120</v>
@@ -38902,14 +38902,14 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>48</v>
+        <v>6.999999999722222</v>
       </c>
       <c r="N542" t="n">
         <v>24</v>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -38973,7 +38973,7 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>48</v>
+        <v>45.81416666611111</v>
       </c>
       <c r="N543" t="n">
         <v>72</v>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>48</v>
+        <v>30.8502777775</v>
       </c>
       <c r="N545" t="n">
         <v>72</v>
@@ -39257,7 +39257,7 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>24</v>
+        <v>22.56583333305556</v>
       </c>
       <c r="N547" t="n">
         <v>120</v>
@@ -39328,7 +39328,7 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>48</v>
+        <v>27.41888888861111</v>
       </c>
       <c r="N548" t="n">
         <v>72</v>
@@ -39399,7 +39399,7 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>24</v>
+        <v>0.1913888888888889</v>
       </c>
       <c r="N549" t="n">
         <v>120</v>
@@ -39470,14 +39470,14 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N550" t="n">
         <v>24</v>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -39612,14 +39612,14 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>48</v>
+        <v>14.99999999972222</v>
       </c>
       <c r="N552" t="n">
         <v>24</v>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -39683,7 +39683,7 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>24</v>
+        <v>20.77027777777778</v>
       </c>
       <c r="N553" t="n">
         <v>72</v>
@@ -39754,14 +39754,14 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N554" t="n">
         <v>24</v>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -39825,14 +39825,14 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N555" t="n">
         <v>24</v>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -39896,14 +39896,14 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>48</v>
+        <v>10.99999999972222</v>
       </c>
       <c r="N556" t="n">
         <v>24</v>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -39967,7 +39967,7 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>48</v>
+        <v>39.42833333305555</v>
       </c>
       <c r="N557" t="n">
         <v>72</v>
@@ -40038,7 +40038,7 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>72</v>
+        <v>49.99999999944445</v>
       </c>
       <c r="N558" t="n">
         <v>72</v>
@@ -40109,7 +40109,7 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>96</v>
+        <v>76.99999999916668</v>
       </c>
       <c r="N559" t="n">
         <v>72</v>
@@ -40180,7 +40180,7 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N560" t="n">
         <v>120</v>
@@ -40251,7 +40251,7 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>24</v>
+        <v>18.02111111111111</v>
       </c>
       <c r="N561" t="n">
         <v>24</v>
@@ -40322,7 +40322,7 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>48</v>
+        <v>35.99999999972223</v>
       </c>
       <c r="N562" t="n">
         <v>72</v>
@@ -40393,7 +40393,7 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N563" t="n">
         <v>24</v>
@@ -40464,7 +40464,7 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N564" t="n">
         <v>24</v>
@@ -40535,7 +40535,7 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>96</v>
+        <v>85.60611111000001</v>
       </c>
       <c r="N565" t="n">
         <v>72</v>
@@ -40606,7 +40606,7 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>96</v>
+        <v>73.15027777694445</v>
       </c>
       <c r="N566" t="n">
         <v>72</v>
@@ -40677,7 +40677,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>96</v>
+        <v>95.21916666555556</v>
       </c>
       <c r="N567" t="n">
         <v>72</v>
@@ -40748,7 +40748,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>72</v>
+        <v>60.99999999944445</v>
       </c>
       <c r="N568" t="n">
         <v>120</v>
@@ -40819,7 +40819,7 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>72</v>
+        <v>59.51583333250001</v>
       </c>
       <c r="N569" t="n">
         <v>72</v>
@@ -40961,7 +40961,7 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>120</v>
+        <v>95.9999999988889</v>
       </c>
       <c r="N571" t="n">
         <v>120</v>
@@ -41032,7 +41032,7 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>24</v>
+        <v>13.1702777775</v>
       </c>
       <c r="N572" t="n">
         <v>24</v>
@@ -41103,7 +41103,7 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N573" t="n">
         <v>24</v>
@@ -41174,7 +41174,7 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N574" t="n">
         <v>72</v>
@@ -41245,14 +41245,14 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>48</v>
+        <v>13.99999999972222</v>
       </c>
       <c r="N575" t="n">
         <v>24</v>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -41387,7 +41387,7 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>120</v>
+        <v>115.7772222211111</v>
       </c>
       <c r="N577" t="n">
         <v>120</v>
@@ -41458,7 +41458,7 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N578" t="n">
         <v>72</v>
@@ -41529,7 +41529,7 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>72</v>
+        <v>54.99999999944445</v>
       </c>
       <c r="N579" t="n">
         <v>120</v>
@@ -41600,7 +41600,7 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>72</v>
+        <v>32.99999999944445</v>
       </c>
       <c r="N580" t="n">
         <v>72</v>
@@ -41671,7 +41671,7 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>72</v>
+        <v>57.08222222166667</v>
       </c>
       <c r="N581" t="n">
         <v>72</v>
@@ -41742,14 +41742,14 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>96</v>
+        <v>54.99999999916668</v>
       </c>
       <c r="N582" t="n">
         <v>72</v>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>24</v>
+        <v>6.273611110833333</v>
       </c>
       <c r="N584" t="n">
         <v>120</v>
@@ -41955,7 +41955,7 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N585" t="n">
         <v>24</v>
@@ -42026,14 +42026,14 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N586" t="n">
         <v>24</v>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -42097,7 +42097,7 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>24</v>
+        <v>7.743055555555555</v>
       </c>
       <c r="N587" t="n">
         <v>24</v>
@@ -42168,7 +42168,7 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>48</v>
+        <v>31.99999999972222</v>
       </c>
       <c r="N588" t="n">
         <v>72</v>
@@ -42239,7 +42239,7 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>24</v>
+        <v>15.77472222194444</v>
       </c>
       <c r="N589" t="n">
         <v>72</v>
@@ -42310,7 +42310,7 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>48</v>
+        <v>29.41861111055556</v>
       </c>
       <c r="N590" t="n">
         <v>24</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>72</v>
+        <v>34.99999999944445</v>
       </c>
       <c r="N591" t="n">
         <v>120</v>
@@ -42452,7 +42452,7 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>48</v>
+        <v>33.99999999972222</v>
       </c>
       <c r="N592" t="n">
         <v>72</v>
@@ -42523,7 +42523,7 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>72</v>
+        <v>63.28277777722223</v>
       </c>
       <c r="N593" t="n">
         <v>72</v>
@@ -42594,7 +42594,7 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N594" t="n">
         <v>72</v>
@@ -42665,7 +42665,7 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>72</v>
+        <v>60.86694444361112</v>
       </c>
       <c r="N595" t="n">
         <v>72</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>72</v>
+        <v>53.94666666611111</v>
       </c>
       <c r="N597" t="n">
         <v>120</v>
@@ -42878,7 +42878,7 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>48</v>
+        <v>36.59166666638889</v>
       </c>
       <c r="N598" t="n">
         <v>72</v>
@@ -42949,7 +42949,7 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>72</v>
+        <v>44.99999999944445</v>
       </c>
       <c r="N599" t="n">
         <v>72</v>
@@ -43020,7 +43020,7 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>120</v>
+        <v>96.61861110972222</v>
       </c>
       <c r="N600" t="n">
         <v>120</v>
@@ -43091,7 +43091,7 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>120</v>
+        <v>109.4419444433333</v>
       </c>
       <c r="N601" t="n">
         <v>120</v>
@@ -43162,7 +43162,7 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>48</v>
+        <v>29.61999999972222</v>
       </c>
       <c r="N602" t="n">
         <v>72</v>
@@ -43233,7 +43233,7 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>48</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N603" t="n">
         <v>72</v>
@@ -43304,7 +43304,7 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>72</v>
+        <v>54.60527777722223</v>
       </c>
       <c r="N604" t="n">
         <v>72</v>
@@ -43375,7 +43375,7 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>72</v>
+        <v>43.99999999944445</v>
       </c>
       <c r="N605" t="n">
         <v>120</v>
@@ -43446,7 +43446,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>96</v>
+        <v>89.99999999916668</v>
       </c>
       <c r="N606" t="n">
         <v>120</v>
@@ -43517,7 +43517,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N607" t="n">
         <v>72</v>
@@ -43588,7 +43588,7 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>24</v>
+        <v>9.163611111111111</v>
       </c>
       <c r="N608" t="n">
         <v>24</v>
@@ -43659,7 +43659,7 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>72</v>
+        <v>27.99999999944445</v>
       </c>
       <c r="N609" t="n">
         <v>120</v>
@@ -43730,14 +43730,14 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>96</v>
+        <v>69.99999999916668</v>
       </c>
       <c r="N610" t="n">
         <v>72</v>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -43801,7 +43801,7 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>96</v>
+        <v>90.99999999916668</v>
       </c>
       <c r="N611" t="n">
         <v>120</v>
@@ -43872,7 +43872,7 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>96</v>
+        <v>92.64222222111111</v>
       </c>
       <c r="N612" t="n">
         <v>120</v>
@@ -43943,7 +43943,7 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>72</v>
+        <v>34.99999999944445</v>
       </c>
       <c r="N613" t="n">
         <v>120</v>
@@ -44014,7 +44014,7 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>24</v>
+        <v>3.758611110833333</v>
       </c>
       <c r="N614" t="n">
         <v>24</v>
@@ -44085,7 +44085,7 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N615" t="n">
         <v>24</v>
@@ -44156,7 +44156,7 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N616" t="n">
         <v>120</v>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>72</v>
+        <v>58.20305555472223</v>
       </c>
       <c r="N617" t="n">
         <v>120</v>
@@ -44298,7 +44298,7 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>72</v>
+        <v>59.29277777722223</v>
       </c>
       <c r="N618" t="n">
         <v>120</v>
@@ -44369,7 +44369,7 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>96</v>
+        <v>75.60249999916668</v>
       </c>
       <c r="N619" t="n">
         <v>72</v>
@@ -44440,7 +44440,7 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>72</v>
+        <v>65.50638888833333</v>
       </c>
       <c r="N620" t="n">
         <v>120</v>
@@ -44511,7 +44511,7 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N621" t="n">
         <v>72</v>
@@ -44582,7 +44582,7 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>72</v>
+        <v>55.99999999944445</v>
       </c>
       <c r="N622" t="n">
         <v>120</v>
@@ -44653,7 +44653,7 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N623" t="n">
         <v>24</v>
@@ -44724,7 +44724,7 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N624" t="n">
         <v>24</v>
@@ -44795,7 +44795,7 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>120</v>
+        <v>104.6902777763889</v>
       </c>
       <c r="N625" t="n">
         <v>120</v>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>120</v>
+        <v>111.9999999988889</v>
       </c>
       <c r="N626" t="n">
         <v>120</v>
@@ -44937,14 +44937,14 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N627" t="n">
         <v>24</v>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -45008,7 +45008,7 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>96</v>
+        <v>91.62444444333335</v>
       </c>
       <c r="N628" t="n">
         <v>120</v>
@@ -45079,7 +45079,7 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N629" t="n">
         <v>24</v>
@@ -45150,7 +45150,7 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>96</v>
+        <v>90.6074999988889</v>
       </c>
       <c r="N630" t="n">
         <v>120</v>
@@ -45221,7 +45221,7 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N631" t="n">
         <v>120</v>
@@ -45292,7 +45292,7 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>48</v>
+        <v>26.99999999972222</v>
       </c>
       <c r="N632" t="n">
         <v>120</v>
@@ -45363,7 +45363,7 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>48</v>
+        <v>44.69138888833334</v>
       </c>
       <c r="N633" t="n">
         <v>120</v>
@@ -45434,7 +45434,7 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N634" t="n">
         <v>120</v>
@@ -45505,14 +45505,14 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>48</v>
+        <v>8.999999999722222</v>
       </c>
       <c r="N635" t="n">
         <v>24</v>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -45576,7 +45576,7 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>120</v>
+        <v>88.9999999988889</v>
       </c>
       <c r="N636" t="n">
         <v>120</v>
@@ -45718,14 +45718,14 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>144</v>
+        <v>109.9999999986111</v>
       </c>
       <c r="N638" t="n">
         <v>120</v>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -45789,7 +45789,7 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>96</v>
+        <v>64.99999999916668</v>
       </c>
       <c r="N639" t="n">
         <v>120</v>
@@ -45860,7 +45860,7 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>72</v>
+        <v>66.24111111027779</v>
       </c>
       <c r="N640" t="n">
         <v>120</v>
@@ -45931,7 +45931,7 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>96</v>
+        <v>52.99999999916668</v>
       </c>
       <c r="N641" t="n">
         <v>120</v>
@@ -46002,7 +46002,7 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N642" t="n">
         <v>24</v>
@@ -46073,7 +46073,7 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N643" t="n">
         <v>24</v>
@@ -46144,7 +46144,7 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>120</v>
+        <v>101.7824999988889</v>
       </c>
       <c r="N644" t="n">
         <v>120</v>
@@ -46215,7 +46215,7 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>72</v>
+        <v>28.99999999944445</v>
       </c>
       <c r="N645" t="n">
         <v>120</v>
@@ -46286,7 +46286,7 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>120</v>
+        <v>79.9999999988889</v>
       </c>
       <c r="N646" t="n">
         <v>72</v>
@@ -46357,7 +46357,7 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N647" t="n">
         <v>24</v>
@@ -46428,7 +46428,7 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>48</v>
+        <v>28.378055555</v>
       </c>
       <c r="N648" t="n">
         <v>72</v>
@@ -46499,7 +46499,7 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>72</v>
+        <v>51.99999999944445</v>
       </c>
       <c r="N649" t="n">
         <v>72</v>
@@ -46570,7 +46570,7 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>96</v>
+        <v>66.99999999916668</v>
       </c>
       <c r="N650" t="n">
         <v>120</v>
@@ -46641,7 +46641,7 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>48</v>
+        <v>42.58416666638889</v>
       </c>
       <c r="N651" t="n">
         <v>72</v>
@@ -46712,7 +46712,7 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N652" t="n">
         <v>72</v>
@@ -46783,7 +46783,7 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>72</v>
+        <v>56.87944444388889</v>
       </c>
       <c r="N653" t="n">
         <v>120</v>
@@ -46854,7 +46854,7 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>48</v>
+        <v>46.14083333277778</v>
       </c>
       <c r="N654" t="n">
         <v>120</v>
@@ -46925,7 +46925,7 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>72</v>
+        <v>52.48638888805556</v>
       </c>
       <c r="N655" t="n">
         <v>120</v>
@@ -46996,7 +46996,7 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N656" t="n">
         <v>24</v>
@@ -47067,14 +47067,14 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N657" t="n">
         <v>24</v>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -47138,7 +47138,7 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>72</v>
+        <v>63.1522222213889</v>
       </c>
       <c r="N658" t="n">
         <v>120</v>
@@ -47209,7 +47209,7 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>120</v>
+        <v>113.6858333322222</v>
       </c>
       <c r="N659" t="n">
         <v>120</v>
@@ -47280,7 +47280,7 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>120</v>
+        <v>93.9999999988889</v>
       </c>
       <c r="N660" t="n">
         <v>120</v>
@@ -47351,7 +47351,7 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>48</v>
+        <v>33.99999999972222</v>
       </c>
       <c r="N661" t="n">
         <v>72</v>
@@ -47422,7 +47422,7 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>48</v>
+        <v>25.81999999972222</v>
       </c>
       <c r="N662" t="n">
         <v>72</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>24</v>
+        <v>4.361944444444444</v>
       </c>
       <c r="N663" t="n">
         <v>120</v>
@@ -47564,7 +47564,7 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>24</v>
+        <v>7.344722221944444</v>
       </c>
       <c r="N664" t="n">
         <v>24</v>
@@ -47635,7 +47635,7 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>24</v>
+        <v>23.38249999972222</v>
       </c>
       <c r="N665" t="n">
         <v>72</v>
@@ -47706,14 +47706,14 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>144</v>
+        <v>106.9999999986111</v>
       </c>
       <c r="N666" t="n">
         <v>120</v>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -47777,14 +47777,14 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>48</v>
+        <v>10.99999999972222</v>
       </c>
       <c r="N667" t="n">
         <v>24</v>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -47848,7 +47848,7 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>96</v>
+        <v>77.99999999916668</v>
       </c>
       <c r="N668" t="n">
         <v>72</v>
@@ -47919,7 +47919,7 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N669" t="n">
         <v>72</v>
@@ -47990,7 +47990,7 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>72</v>
+        <v>42.99999999944445</v>
       </c>
       <c r="N670" t="n">
         <v>120</v>
@@ -48061,7 +48061,7 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>96</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N671" t="n">
         <v>120</v>
@@ -48132,7 +48132,7 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N672" t="n">
         <v>24</v>
@@ -48203,7 +48203,7 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>96</v>
+        <v>75.99999999916668</v>
       </c>
       <c r="N673" t="n">
         <v>72</v>
@@ -48274,7 +48274,7 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N674" t="n">
         <v>24</v>
@@ -48345,7 +48345,7 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N675" t="n">
         <v>24</v>
@@ -48416,7 +48416,7 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>48</v>
+        <v>25.12083333305556</v>
       </c>
       <c r="N676" t="n">
         <v>72</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>96</v>
+        <v>73.74666666555557</v>
       </c>
       <c r="N677" t="n">
         <v>72</v>
@@ -48629,7 +48629,7 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>24</v>
+        <v>21.94972222222222</v>
       </c>
       <c r="N679" t="n">
         <v>120</v>
@@ -48700,7 +48700,7 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>96</v>
+        <v>91.99999999916668</v>
       </c>
       <c r="N680" t="n">
         <v>120</v>
@@ -48771,7 +48771,7 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N681" t="n">
         <v>24</v>
@@ -48842,7 +48842,7 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>48</v>
+        <v>24.99999999972222</v>
       </c>
       <c r="N682" t="n">
         <v>24</v>
@@ -48913,7 +48913,7 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>72</v>
+        <v>27.99999999944445</v>
       </c>
       <c r="N683" t="n">
         <v>24</v>
@@ -48984,7 +48984,7 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>48</v>
+        <v>47.99999999944445</v>
       </c>
       <c r="N684" t="n">
         <v>72</v>
@@ -49055,7 +49055,7 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>120</v>
+        <v>78.9999999988889</v>
       </c>
       <c r="N685" t="n">
         <v>72</v>
@@ -49126,7 +49126,7 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>24</v>
+        <v>21.23666666638889</v>
       </c>
       <c r="N686" t="n">
         <v>72</v>
@@ -49197,7 +49197,7 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>48</v>
+        <v>36.30277777722223</v>
       </c>
       <c r="N687" t="n">
         <v>120</v>
@@ -49268,7 +49268,7 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N688" t="n">
         <v>24</v>
@@ -49410,7 +49410,7 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>24</v>
+        <v>7.063611111111111</v>
       </c>
       <c r="N690" t="n">
         <v>24</v>
@@ -49481,7 +49481,7 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>72</v>
+        <v>30.99999999944445</v>
       </c>
       <c r="N691" t="n">
         <v>72</v>
@@ -49552,7 +49552,7 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>96</v>
+        <v>72.24055555444446</v>
       </c>
       <c r="N692" t="n">
         <v>120</v>
@@ -49623,7 +49623,7 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>120</v>
+        <v>110.1249999988889</v>
       </c>
       <c r="N693" t="n">
         <v>120</v>
@@ -49694,7 +49694,7 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>48</v>
+        <v>42.32361111055556</v>
       </c>
       <c r="N694" t="n">
         <v>120</v>
@@ -49765,7 +49765,7 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N695" t="n">
         <v>24</v>
@@ -49836,7 +49836,7 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>48</v>
+        <v>31.99999999972222</v>
       </c>
       <c r="N696" t="n">
         <v>72</v>
@@ -49907,14 +49907,14 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N697" t="n">
         <v>24</v>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -49978,7 +49978,7 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>48</v>
+        <v>19.99999999972222</v>
       </c>
       <c r="N698" t="n">
         <v>120</v>
@@ -50049,7 +50049,7 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N699" t="n">
         <v>24</v>
@@ -50120,7 +50120,7 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>72</v>
+        <v>65.65972222166667</v>
       </c>
       <c r="N700" t="n">
         <v>120</v>
@@ -50262,7 +50262,7 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>96</v>
+        <v>73.84638888777779</v>
       </c>
       <c r="N702" t="n">
         <v>72</v>
@@ -50404,7 +50404,7 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>120</v>
+        <v>96.96555555444445</v>
       </c>
       <c r="N704" t="n">
         <v>120</v>
@@ -50475,7 +50475,7 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>72</v>
+        <v>71.99999999916668</v>
       </c>
       <c r="N705" t="n">
         <v>120</v>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N706" t="n">
         <v>24</v>
@@ -50617,7 +50617,7 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>120</v>
+        <v>113.0247222208333</v>
       </c>
       <c r="N707" t="n">
         <v>120</v>
@@ -50688,7 +50688,7 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>72</v>
+        <v>65.73527777722222</v>
       </c>
       <c r="N708" t="n">
         <v>72</v>
@@ -50901,7 +50901,7 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>72</v>
+        <v>44.99999999944445</v>
       </c>
       <c r="N711" t="n">
         <v>72</v>
@@ -50972,7 +50972,7 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N712" t="n">
         <v>24</v>
@@ -51043,7 +51043,7 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>48</v>
+        <v>36.99999999944445</v>
       </c>
       <c r="N713" t="n">
         <v>72</v>
@@ -51114,7 +51114,7 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>120</v>
+        <v>102.9999999988889</v>
       </c>
       <c r="N714" t="n">
         <v>120</v>
@@ -51185,7 +51185,7 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>48</v>
+        <v>31.51472222194445</v>
       </c>
       <c r="N715" t="n">
         <v>120</v>
@@ -51327,7 +51327,7 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>24</v>
+        <v>14.93861111111111</v>
       </c>
       <c r="N717" t="n">
         <v>24</v>
@@ -51398,14 +51398,14 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>48</v>
+        <v>22.99999999972222</v>
       </c>
       <c r="N718" t="n">
         <v>24</v>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -51469,7 +51469,7 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>48</v>
+        <v>27.27472222194445</v>
       </c>
       <c r="N719" t="n">
         <v>120</v>
@@ -51540,7 +51540,7 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N720" t="n">
         <v>72</v>
@@ -51611,7 +51611,7 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>72</v>
+        <v>59.01166666611112</v>
       </c>
       <c r="N721" t="n">
         <v>72</v>
@@ -51682,7 +51682,7 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>72</v>
+        <v>53.99999999944445</v>
       </c>
       <c r="N722" t="n">
         <v>120</v>
@@ -51753,7 +51753,7 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>24</v>
+        <v>19.65972222194445</v>
       </c>
       <c r="N723" t="n">
         <v>72</v>
@@ -51824,14 +51824,14 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>48</v>
+        <v>8.999999999722222</v>
       </c>
       <c r="N724" t="n">
         <v>24</v>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -51895,14 +51895,14 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>48</v>
+        <v>14.99999999972222</v>
       </c>
       <c r="N725" t="n">
         <v>24</v>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -51966,7 +51966,7 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>24</v>
+        <v>19.64555555527778</v>
       </c>
       <c r="N726" t="n">
         <v>72</v>
@@ -52037,7 +52037,7 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>48</v>
+        <v>28.99999999972222</v>
       </c>
       <c r="N727" t="n">
         <v>24</v>
@@ -52108,7 +52108,7 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>48</v>
+        <v>29.99999999972222</v>
       </c>
       <c r="N728" t="n">
         <v>72</v>
@@ -52179,7 +52179,7 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>120</v>
+        <v>99.9999999988889</v>
       </c>
       <c r="N729" t="n">
         <v>120</v>
@@ -52250,7 +52250,7 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>96</v>
+        <v>76.99999999916668</v>
       </c>
       <c r="N730" t="n">
         <v>120</v>
@@ -52321,14 +52321,14 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>48</v>
+        <v>11.99999999972222</v>
       </c>
       <c r="N731" t="n">
         <v>24</v>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -52392,7 +52392,7 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>96</v>
+        <v>92.15249999916668</v>
       </c>
       <c r="N732" t="n">
         <v>120</v>
@@ -52463,14 +52463,14 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>48</v>
+        <v>21.99999999972222</v>
       </c>
       <c r="N733" t="n">
         <v>24</v>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -52534,7 +52534,7 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>96</v>
+        <v>91.49111111027779</v>
       </c>
       <c r="N734" t="n">
         <v>120</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>24</v>
+        <v>23.38111111111111</v>
       </c>
       <c r="N735" t="n">
         <v>120</v>
@@ -52676,7 +52676,7 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>48</v>
+        <v>32.99999999972222</v>
       </c>
       <c r="N736" t="n">
         <v>72</v>
@@ -52747,7 +52747,7 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>72</v>
+        <v>41.99999999944445</v>
       </c>
       <c r="N737" t="n">
         <v>120</v>
@@ -52818,7 +52818,7 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>72</v>
+        <v>46.99999999944445</v>
       </c>
       <c r="N738" t="n">
         <v>72</v>
@@ -52889,7 +52889,7 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>72</v>
+        <v>45.99999999944445</v>
       </c>
       <c r="N739" t="n">
         <v>72</v>
@@ -52960,7 +52960,7 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>120</v>
+        <v>80.9999999988889</v>
       </c>
       <c r="N740" t="n">
         <v>120</v>
@@ -53031,7 +53031,7 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>48</v>
+        <v>17.99999999972222</v>
       </c>
       <c r="N741" t="n">
         <v>120</v>
@@ -53102,7 +53102,7 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N742" t="n">
         <v>24</v>
@@ -53173,14 +53173,14 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>48</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N743" t="n">
         <v>24</v>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -53244,7 +53244,7 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>48</v>
+        <v>31.99999999972222</v>
       </c>
       <c r="N744" t="n">
         <v>120</v>
@@ -53315,7 +53315,7 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>72</v>
+        <v>33.99999999944445</v>
       </c>
       <c r="N745" t="n">
         <v>72</v>
@@ -53386,7 +53386,7 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>96</v>
+        <v>95.9999999988889</v>
       </c>
       <c r="N746" t="n">
         <v>120</v>
@@ -53457,7 +53457,7 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>120</v>
+        <v>114.68611111</v>
       </c>
       <c r="N747" t="n">
         <v>120</v>
@@ -53599,7 +53599,7 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>72</v>
+        <v>51.270555555</v>
       </c>
       <c r="N749" t="n">
         <v>72</v>
@@ -53670,7 +53670,7 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>24</v>
+        <v>2.167222222222222</v>
       </c>
       <c r="N750" t="n">
         <v>72</v>
@@ -53812,7 +53812,7 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>96</v>
+        <v>71.99999999916668</v>
       </c>
       <c r="N752" t="n">
         <v>120</v>
@@ -53954,7 +53954,7 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>120</v>
+        <v>100.7944444430556</v>
       </c>
       <c r="N754" t="n">
         <v>120</v>
@@ -54025,7 +54025,7 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>24</v>
+        <v>15.47027777777778</v>
       </c>
       <c r="N755" t="n">
         <v>72</v>
@@ -54096,7 +54096,7 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>24</v>
+        <v>1.678333333333333</v>
       </c>
       <c r="N756" t="n">
         <v>72</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>24</v>
+        <v>21.22999999972222</v>
       </c>
       <c r="N757" t="n">
         <v>72</v>
@@ -54238,7 +54238,7 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N758" t="n">
         <v>24</v>
@@ -54309,7 +54309,7 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N759" t="n">
         <v>24</v>
@@ -54380,7 +54380,7 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N760" t="n">
         <v>24</v>
@@ -54451,14 +54451,14 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>48</v>
+        <v>18.99999999972222</v>
       </c>
       <c r="N761" t="n">
         <v>24</v>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -54522,7 +54522,7 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>96</v>
+        <v>72.73138888805556</v>
       </c>
       <c r="N762" t="n">
         <v>72</v>
@@ -54593,7 +54593,7 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>120</v>
+        <v>98.9999999988889</v>
       </c>
       <c r="N763" t="n">
         <v>120</v>
@@ -54664,7 +54664,7 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>24</v>
+        <v>25.99999999972222</v>
       </c>
       <c r="N764" t="n">
         <v>72</v>
@@ -54735,7 +54735,7 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>24</v>
+        <v>22.82305555555556</v>
       </c>
       <c r="N765" t="n">
         <v>72</v>
@@ -54806,7 +54806,7 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>48</v>
+        <v>16.99999999972222</v>
       </c>
       <c r="N766" t="n">
         <v>72</v>
@@ -54877,7 +54877,7 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>24</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N767" t="n">
         <v>72</v>
@@ -54948,7 +54948,7 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>24</v>
+        <v>0.645</v>
       </c>
       <c r="N768" t="n">
         <v>24</v>
@@ -55019,7 +55019,7 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>48</v>
+        <v>27.99999999972222</v>
       </c>
       <c r="N769" t="n">
         <v>72</v>
@@ -55090,7 +55090,7 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>48</v>
+        <v>38.47166666638888</v>
       </c>
       <c r="N770" t="n">
         <v>72</v>
@@ -55161,7 +55161,7 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>72</v>
+        <v>56.41027777694445</v>
       </c>
       <c r="N771" t="n">
         <v>120</v>
@@ -55232,7 +55232,7 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N772" t="n">
         <v>120</v>
@@ -55303,7 +55303,7 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>48</v>
+        <v>26.99999999972222</v>
       </c>
       <c r="N773" t="n">
         <v>24</v>
@@ -55374,7 +55374,7 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>72</v>
+        <v>40.99999999944445</v>
       </c>
       <c r="N774" t="n">
         <v>120</v>
@@ -55445,7 +55445,7 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>48</v>
+        <v>34.81388888833334</v>
       </c>
       <c r="N775" t="n">
         <v>72</v>
@@ -55516,14 +55516,14 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>48</v>
+        <v>15.99999999972222</v>
       </c>
       <c r="N776" t="n">
         <v>24</v>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -55587,7 +55587,7 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>72</v>
+        <v>69.30388888833333</v>
       </c>
       <c r="N777" t="n">
         <v>120</v>
@@ -55658,14 +55658,14 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>144</v>
+        <v>109.9999999986111</v>
       </c>
       <c r="N778" t="n">
         <v>120</v>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -55729,14 +55729,14 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>48</v>
+        <v>16.99999999972222</v>
       </c>
       <c r="N779" t="n">
         <v>24</v>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -55800,7 +55800,7 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>24</v>
+        <v>4.9977777775</v>
       </c>
       <c r="N780" t="n">
         <v>24</v>
@@ -55871,14 +55871,14 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>48</v>
+        <v>9.999999999722222</v>
       </c>
       <c r="N781" t="n">
         <v>24</v>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -55942,14 +55942,14 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>144</v>
+        <v>100.9999999986111</v>
       </c>
       <c r="N782" t="n">
         <v>120</v>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>violado</t>
+          <t>atendido</t>
         </is>
       </c>
     </row>
@@ -56013,7 +56013,7 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>96</v>
+        <v>72.0222222213889</v>
       </c>
       <c r="N783" t="n">
         <v>120</v>
@@ -56084,7 +56084,7 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>72</v>
+        <v>57.99999999944445</v>
       </c>
       <c r="N784" t="n">
         <v>72</v>
@@ -56155,7 +56155,7 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>72</v>
+        <v>48.79111111055556</v>
       </c>
       <c r="N785" t="n">
         <v>72</v>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N786" t="n">
         <v>24</v>
@@ -56297,7 +56297,7 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>24</v>
+        <v>12.39833333305556</v>
       </c>
       <c r="N787" t="n">
         <v>24</v>
@@ -56368,7 +56368,7 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>72</v>
+        <v>64.82861111027779</v>
       </c>
       <c r="N788" t="n">
         <v>120</v>
@@ -56439,7 +56439,7 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N789" t="n">
         <v>24</v>
@@ -56510,7 +56510,7 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>72</v>
+        <v>56.20333333250001</v>
       </c>
       <c r="N790" t="n">
         <v>120</v>
@@ -56581,7 +56581,7 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>72</v>
+        <v>52.99999999944445</v>
       </c>
       <c r="N791" t="n">
         <v>72</v>
@@ -56652,7 +56652,7 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>96</v>
+        <v>72.6822222213889</v>
       </c>
       <c r="N792" t="n">
         <v>120</v>
@@ -56865,7 +56865,7 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>24</v>
+        <v>3.457222221944444</v>
       </c>
       <c r="N795" t="n">
         <v>24</v>
@@ -56936,7 +56936,7 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>24</v>
+        <v>23.99999999972222</v>
       </c>
       <c r="N796" t="n">
         <v>120</v>
@@ -57007,7 +57007,7 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N797" t="n">
         <v>24</v>
@@ -57078,7 +57078,7 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>72</v>
+        <v>82.14138888805556</v>
       </c>
       <c r="N798" t="n">
         <v>120</v>
@@ -57149,7 +57149,7 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>72</v>
+        <v>65.71472222166668</v>
       </c>
       <c r="N799" t="n">
         <v>72</v>
@@ -57220,7 +57220,7 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>24</v>
+        <v>15.46499999972222</v>
       </c>
       <c r="N800" t="n">
         <v>120</v>
@@ -57291,7 +57291,7 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>48</v>
+        <v>39.97944444388889</v>
       </c>
       <c r="N801" t="n">
         <v>72</v>
@@ -57362,7 +57362,7 @@
         </is>
       </c>
       <c r="M802" t="n">
-        <v>96</v>
+        <v>72.99999999916668</v>
       </c>
       <c r="N802" t="n">
         <v>120</v>
@@ -57433,7 +57433,7 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>120</v>
+        <v>105.7574999988889</v>
       </c>
       <c r="N803" t="n">
         <v>120</v>
@@ -57504,7 +57504,7 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>120</v>
+        <v>119.9999999986111</v>
       </c>
       <c r="N804" t="n">
         <v>120</v>
